--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052LoanAsset.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052LoanAsset.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9355B20-F0F3-4A40-A140-23099C11EC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>備註說明</t>
   </si>
@@ -183,29 +193,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>YearMonth,LoanAssetCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L9_MonthlyLM052LoanAsset_Ins</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>ref CdCode.LoanAssetCode
 特定資產：
-S1：購置住宅+修繕貸款
-S2：建築貸款
+S1:購置住宅+修繕貸款
+S2:建築貸款
 非特定資產：
-NS1：100年後政策性貸款
-NS2：股票質押
-NS3：不動產抵押貸款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YearMonth,LoanAssetCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Usp_L9_MonthlyLM052LoanAsset_Ins</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+NS1:100年後政策性貸款
+NS2:股票質押
+NS3:不動產抵押貸款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref BdBal.LoanBal
+特定資產：
+S1:購置住宅+修繕貸款
+S3:建築貸款
+非特定資產：
+NS1:100年後政策性貸款
+NS3:股票質押
+NS16:不動產抵押貸款</t>
+  </si>
+  <si>
+    <t>ref DdDate.CreateDate
+特定資產：
+S1:購置住宅+修繕貸款
+S4:建築貸款
+非特定資產：
+NS1:100年後政策性貸款
+NS4:股票質押
+NS:不動產抵押貸款</t>
+  </si>
+  <si>
+    <t>ref NdNo.CreateEmpNo
+特定資產：
+S1:購置住宅+修繕貸款
+S5:建築貸款
+非特定資產：
+NS1:100年後政策性貸款
+NS5:股票質押
+NS6:不動產抵押貸款</t>
+  </si>
+  <si>
+    <t>ref UdUpdate.LastUpdate
+特定資產：
+S1:購置住宅+修繕貸款
+S6:建築貸款
+非特定資產：
+NS1:100年後政策性貸款
+NS6:股票質押
+NS:不動產抵押貸款</t>
+  </si>
+  <si>
+    <t>ref NdNo.LastUpdateEmpNo
+特定資產：
+S1:購置住宅+修繕貸款
+S7:建築貸款
+非特定資產：
+NS1:100年後政策性貸款
+NS7:股票質押
+NS6:不動產抵押貸款</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -608,6 +668,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -643,6 +720,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -818,11 +912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -870,7 +964,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -984,7 +1078,7 @@
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1118,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1153,7 +1247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1180,7 +1274,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
